--- a/dyuthi16_schedule.xlsx
+++ b/dyuthi16_schedule.xlsx
@@ -1044,7 +1044,7 @@
     <t>Seminar Hall: CHE Dept</t>
   </si>
   <si>
-    <t>Slpit Screen</t>
+    <t>Split Screen</t>
   </si>
   <si>
     <t>Arjun K Bhrath</t>
@@ -1951,8 +1951,8 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A142" activeCellId="0" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/dyuthi16_schedule.xlsx
+++ b/dyuthi16_schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="451">
   <si>
     <t>Event</t>
   </si>
@@ -1048,15 +1048,6 @@
   </si>
   <si>
     <t>Arjun K Bhrath</t>
-  </si>
-  <si>
-    <t>DJ War</t>
-  </si>
-  <si>
-    <t>07:00-08:30 PM</t>
-  </si>
-  <si>
-    <t>Arjun B Nair</t>
   </si>
   <si>
     <t>Resonance Expo</t>
@@ -1951,11 +1942,11 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A142" activeCellId="0" sqref="A142"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.7125506072874"/>
@@ -5262,14 +5253,12 @@
         <v>344</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>345</v>
+        <v>9</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>346</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="0" t="s">
         <v>93</v>
@@ -5283,13 +5272,13 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -5305,13 +5294,13 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>348</v>
+        <v>137</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -5327,13 +5316,13 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -5349,15 +5338,15 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D146" s="3"/>
+      <c r="C146" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D146" s="15"/>
       <c r="E146" s="3"/>
       <c r="F146" s="0" t="s">
         <v>134</v>
@@ -5370,16 +5359,16 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="3" t="s">
+      <c r="A147" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D147" s="15"/>
+      <c r="C147" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D147" s="3"/>
       <c r="E147" s="15"/>
       <c r="F147" s="0" t="s">
         <v>134</v>
@@ -5392,16 +5381,16 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" s="7" t="s">
+      <c r="A148" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D148" s="3"/>
+      <c r="C148" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D148" s="36"/>
       <c r="E148" s="3"/>
       <c r="F148" s="0" t="s">
         <v>134</v>
@@ -5414,16 +5403,6 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="D149" s="36"/>
       <c r="E149" s="36"/>
       <c r="F149" s="0" t="s">
         <v>134</v>
@@ -5475,7 +5454,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5510,7 +5489,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -5519,7 +5498,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -5537,7 +5516,7 @@
         <v>273</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E6" s="42" t="n">
         <v>9020993652</v>
@@ -5551,10 +5530,10 @@
         <v>225</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>8547190286</v>
@@ -5565,13 +5544,13 @@
         <v>157</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E8" s="43" t="n">
         <v>8547109431</v>
@@ -5582,13 +5561,13 @@
         <v>150</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>166</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E9" s="43" t="n">
         <v>8547774002</v>
@@ -5602,10 +5581,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E10" s="43" t="n">
         <v>9400269547</v>
@@ -5613,16 +5592,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E11" s="43" t="n">
         <v>9946706411</v>
@@ -5633,13 +5612,13 @@
         <v>177</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E12" s="43" t="n">
         <v>8547190286</v>
@@ -5647,7 +5626,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -5662,10 +5641,10 @@
         <v>61</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E14" s="43" t="n">
         <v>9495028885</v>
@@ -5673,16 +5652,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>183</v>
       </c>
       <c r="C15" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>367</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>370</v>
       </c>
       <c r="E15" s="43" t="n">
         <v>9400686781</v>
@@ -5690,16 +5669,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="43" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E16" s="43" t="n">
         <v>9745391465</v>
@@ -5716,7 +5695,7 @@
         <v>189</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E17" s="43" t="n">
         <v>9495028885</v>
@@ -5724,16 +5703,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="43" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E18" s="43" t="n">
         <v>9745391465</v>
@@ -5741,16 +5720,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="43" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>175</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E19" s="43" t="n">
         <v>9400686781</v>
@@ -5758,16 +5737,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="43" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E20" s="43" t="n">
         <v>9745391465</v>
@@ -5775,7 +5754,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -5787,13 +5766,13 @@
         <v>202</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E22" s="43" t="n">
         <v>9947142491</v>
@@ -5801,7 +5780,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="43" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>9</v>
@@ -5810,7 +5789,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E23" s="43" t="n">
         <v>9567318434</v>
@@ -5818,7 +5797,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="43" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>9</v>
@@ -5827,7 +5806,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E24" s="43" t="n">
         <v>8547550700</v>
@@ -5844,7 +5823,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E25" s="43" t="n">
         <v>7293745307</v>
@@ -5852,16 +5831,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E26" s="43" t="n">
         <v>8129594077</v>
@@ -5875,10 +5854,10 @@
         <v>16</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E27" s="43" t="n">
         <v>9846079065</v>
@@ -5886,16 +5865,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="43" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>175</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E28" s="43" t="n">
         <v>9496674160</v>
@@ -5903,16 +5882,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E29" s="43" t="n">
         <v>8547550700</v>
@@ -5920,16 +5899,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E30" s="43" t="n">
         <v>8129594077</v>
@@ -5937,7 +5916,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -5946,16 +5925,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="44" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>256</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E32" s="46" t="n">
         <v>9895401654</v>
@@ -5963,7 +5942,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="43" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B33" s="43" t="s">
         <v>206</v>
@@ -5972,7 +5951,7 @@
         <v>207</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E33" s="43" t="n">
         <v>9061106859</v>
@@ -5980,16 +5959,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="43" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>175</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E34" s="43" t="n">
         <v>9061106859</v>
@@ -5997,7 +5976,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -6012,10 +5991,10 @@
         <v>83</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E36" s="43" t="n">
         <v>9020205029</v>
@@ -6029,10 +6008,10 @@
         <v>88</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E37" s="43" t="n">
         <v>9020205029</v>
@@ -6040,7 +6019,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -6055,10 +6034,10 @@
         <v>219</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E39" s="43" t="n">
         <v>9745858859</v>
@@ -6072,10 +6051,10 @@
         <v>223</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E40" s="43" t="n">
         <v>9745858859</v>
@@ -6083,16 +6062,16 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="42" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C41" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D41" s="42" t="s">
         <v>413</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>416</v>
       </c>
       <c r="E41" s="42" t="n">
         <v>9633478901</v>
@@ -6100,7 +6079,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -6109,7 +6088,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B43" s="43" t="s">
         <v>313</v>
@@ -6118,7 +6097,7 @@
         <v>314</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E43" s="43" t="n">
         <v>9400482641</v>
@@ -6126,16 +6105,16 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="43" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B44" s="43" t="s">
         <v>225</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E44" s="43" t="n">
         <v>9037069691</v>
@@ -6143,16 +6122,16 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="43" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B45" s="43" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E45" s="43" t="n">
         <v>8547594806</v>
@@ -6160,16 +6139,16 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="47" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E46" s="43" t="n">
         <v>9037069691</v>
@@ -6177,16 +6156,16 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="43" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>313</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E47" s="43" t="n">
         <v>8547594806</v>
@@ -6194,7 +6173,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -6209,10 +6188,10 @@
         <v>115</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E49" s="43" t="n">
         <v>9745082816</v>
@@ -6226,10 +6205,10 @@
         <v>313</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E50" s="43" t="n">
         <v>8606555089</v>
@@ -6246,7 +6225,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E51" s="43" t="n">
         <v>9745082816</v>
@@ -6254,7 +6233,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -6269,10 +6248,10 @@
         <v>206</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E53" s="43" t="n">
         <v>8281980537</v>
@@ -6286,10 +6265,10 @@
         <v>175</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E54" s="43" t="n">
         <v>8281980537</v>
@@ -6297,7 +6276,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -6312,10 +6291,10 @@
         <v>247</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E56" s="42" t="n">
         <v>9400548080</v>
@@ -6329,10 +6308,10 @@
         <v>247</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E57" s="42" t="n">
         <v>9633075534</v>
@@ -6340,7 +6319,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="42" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B58" s="42" t="s">
         <v>247</v>
@@ -6349,7 +6328,7 @@
         <v>123</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E58" s="42" t="n">
         <v>9496365493</v>
@@ -6357,7 +6336,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -6375,7 +6354,7 @@
         <v>166</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E60" s="43" t="n">
         <v>8943472471</v>
@@ -6383,7 +6362,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -6457,7 +6436,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="43" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>9</v>
@@ -6470,13 +6449,13 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="43" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
@@ -6490,10 +6469,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="48" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>

--- a/dyuthi16_schedule.xlsx
+++ b/dyuthi16_schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="450">
   <si>
     <t>Event</t>
   </si>
@@ -1054,9 +1054,6 @@
   </si>
   <si>
     <t>Insiginia Expo</t>
-  </si>
-  <si>
-    <t>mechanical Dept</t>
   </si>
   <si>
     <t>DYUTHI '15   SCHEDULE</t>
@@ -1942,8 +1939,8 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C149" activeCellId="0" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5388,7 +5385,7 @@
         <v>9</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>346</v>
+        <v>148</v>
       </c>
       <c r="D148" s="36"/>
       <c r="E148" s="3"/>
@@ -5404,15 +5401,6 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E149" s="36"/>
-      <c r="F149" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="G149" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="H149" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5454,7 +5442,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5489,7 +5477,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -5498,7 +5486,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -5516,7 +5504,7 @@
         <v>273</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E6" s="42" t="n">
         <v>9020993652</v>
@@ -5530,10 +5518,10 @@
         <v>225</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>351</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>352</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>8547190286</v>
@@ -5544,13 +5532,13 @@
         <v>157</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="D8" s="43" t="s">
         <v>354</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>355</v>
       </c>
       <c r="E8" s="43" t="n">
         <v>8547109431</v>
@@ -5561,13 +5549,13 @@
         <v>150</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>166</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="43" t="n">
         <v>8547774002</v>
@@ -5581,10 +5569,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E10" s="43" t="n">
         <v>9400269547</v>
@@ -5592,16 +5580,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="C11" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>360</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>361</v>
       </c>
       <c r="E11" s="43" t="n">
         <v>9946706411</v>
@@ -5612,13 +5600,13 @@
         <v>177</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E12" s="43" t="n">
         <v>8547190286</v>
@@ -5626,7 +5614,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -5641,10 +5629,10 @@
         <v>61</v>
       </c>
       <c r="C14" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>364</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>365</v>
       </c>
       <c r="E14" s="43" t="n">
         <v>9495028885</v>
@@ -5652,16 +5640,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>183</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E15" s="43" t="n">
         <v>9400686781</v>
@@ -5669,16 +5657,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E16" s="43" t="n">
         <v>9745391465</v>
@@ -5695,7 +5683,7 @@
         <v>189</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E17" s="43" t="n">
         <v>9495028885</v>
@@ -5703,16 +5691,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="C18" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>372</v>
-      </c>
       <c r="D18" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E18" s="43" t="n">
         <v>9745391465</v>
@@ -5720,16 +5708,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>175</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E19" s="43" t="n">
         <v>9400686781</v>
@@ -5737,16 +5725,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="C20" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>377</v>
-      </c>
       <c r="D20" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E20" s="43" t="n">
         <v>9745391465</v>
@@ -5754,7 +5742,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -5766,13 +5754,13 @@
         <v>202</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>379</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="D22" s="44" t="s">
         <v>380</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>381</v>
       </c>
       <c r="E22" s="43" t="n">
         <v>9947142491</v>
@@ -5780,7 +5768,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>9</v>
@@ -5789,7 +5777,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E23" s="43" t="n">
         <v>9567318434</v>
@@ -5797,7 +5785,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>9</v>
@@ -5806,7 +5794,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E24" s="43" t="n">
         <v>8547550700</v>
@@ -5823,7 +5811,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E25" s="43" t="n">
         <v>7293745307</v>
@@ -5831,16 +5819,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>387</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>388</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E26" s="43" t="n">
         <v>8129594077</v>
@@ -5854,10 +5842,10 @@
         <v>16</v>
       </c>
       <c r="C27" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>390</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>391</v>
       </c>
       <c r="E27" s="43" t="n">
         <v>9846079065</v>
@@ -5865,16 +5853,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B28" s="43" t="s">
         <v>175</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E28" s="43" t="n">
         <v>9496674160</v>
@@ -5882,16 +5870,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="C29" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="C29" s="43" t="s">
-        <v>396</v>
-      </c>
       <c r="D29" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E29" s="43" t="n">
         <v>8547550700</v>
@@ -5899,16 +5887,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>397</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>398</v>
-      </c>
       <c r="C30" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E30" s="43" t="n">
         <v>8129594077</v>
@@ -5916,7 +5904,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -5925,16 +5913,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="B32" s="45" t="s">
         <v>400</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>401</v>
       </c>
       <c r="C32" s="45" t="s">
         <v>256</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E32" s="46" t="n">
         <v>9895401654</v>
@@ -5942,7 +5930,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B33" s="43" t="s">
         <v>206</v>
@@ -5951,7 +5939,7 @@
         <v>207</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E33" s="43" t="n">
         <v>9061106859</v>
@@ -5959,16 +5947,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>175</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E34" s="43" t="n">
         <v>9061106859</v>
@@ -5976,7 +5964,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -5991,10 +5979,10 @@
         <v>83</v>
       </c>
       <c r="C36" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>407</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>408</v>
       </c>
       <c r="E36" s="43" t="n">
         <v>9020205029</v>
@@ -6008,10 +5996,10 @@
         <v>88</v>
       </c>
       <c r="C37" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>407</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>408</v>
       </c>
       <c r="E37" s="43" t="n">
         <v>9020205029</v>
@@ -6019,7 +6007,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -6034,10 +6022,10 @@
         <v>219</v>
       </c>
       <c r="C39" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="43" t="s">
         <v>410</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>411</v>
       </c>
       <c r="E39" s="43" t="n">
         <v>9745858859</v>
@@ -6051,10 +6039,10 @@
         <v>223</v>
       </c>
       <c r="C40" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D40" s="43" t="s">
         <v>410</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>411</v>
       </c>
       <c r="E40" s="43" t="n">
         <v>9745858859</v>
@@ -6062,16 +6050,16 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="D41" s="42" t="s">
         <v>412</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>413</v>
       </c>
       <c r="E41" s="42" t="n">
         <v>9633478901</v>
@@ -6079,7 +6067,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -6088,7 +6076,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B43" s="43" t="s">
         <v>313</v>
@@ -6097,7 +6085,7 @@
         <v>314</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E43" s="43" t="n">
         <v>9400482641</v>
@@ -6105,16 +6093,16 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B44" s="43" t="s">
         <v>225</v>
       </c>
       <c r="C44" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>418</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>419</v>
       </c>
       <c r="E44" s="43" t="n">
         <v>9037069691</v>
@@ -6122,16 +6110,16 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B45" s="43" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D45" s="43" t="s">
         <v>421</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>422</v>
       </c>
       <c r="E45" s="43" t="n">
         <v>8547594806</v>
@@ -6139,16 +6127,16 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>423</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="C46" s="43" t="s">
         <v>424</v>
       </c>
-      <c r="C46" s="43" t="s">
-        <v>425</v>
-      </c>
       <c r="D46" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E46" s="43" t="n">
         <v>9037069691</v>
@@ -6156,16 +6144,16 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="43" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>313</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E47" s="43" t="n">
         <v>8547594806</v>
@@ -6173,7 +6161,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -6188,10 +6176,10 @@
         <v>115</v>
       </c>
       <c r="C49" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="D49" s="43" t="s">
         <v>429</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>430</v>
       </c>
       <c r="E49" s="43" t="n">
         <v>9745082816</v>
@@ -6205,10 +6193,10 @@
         <v>313</v>
       </c>
       <c r="C50" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>431</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>432</v>
       </c>
       <c r="E50" s="43" t="n">
         <v>8606555089</v>
@@ -6225,7 +6213,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E51" s="43" t="n">
         <v>9745082816</v>
@@ -6233,7 +6221,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -6248,10 +6236,10 @@
         <v>206</v>
       </c>
       <c r="C53" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="D53" s="43" t="s">
         <v>434</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>435</v>
       </c>
       <c r="E53" s="43" t="n">
         <v>8281980537</v>
@@ -6265,10 +6253,10 @@
         <v>175</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E54" s="43" t="n">
         <v>8281980537</v>
@@ -6276,7 +6264,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -6291,10 +6279,10 @@
         <v>247</v>
       </c>
       <c r="C56" s="42" t="s">
+        <v>437</v>
+      </c>
+      <c r="D56" s="42" t="s">
         <v>438</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>439</v>
       </c>
       <c r="E56" s="42" t="n">
         <v>9400548080</v>
@@ -6308,10 +6296,10 @@
         <v>247</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E57" s="42" t="n">
         <v>9633075534</v>
@@ -6319,7 +6307,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" s="42" t="s">
         <v>247</v>
@@ -6328,7 +6316,7 @@
         <v>123</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E58" s="42" t="n">
         <v>9496365493</v>
@@ -6336,7 +6324,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -6354,7 +6342,7 @@
         <v>166</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E60" s="43" t="n">
         <v>8943472471</v>
@@ -6362,7 +6350,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -6436,7 +6424,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>9</v>
@@ -6449,13 +6437,13 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
@@ -6469,10 +6457,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="48" t="s">
+        <v>448</v>
+      </c>
+      <c r="B70" s="49" t="s">
         <v>449</v>
-      </c>
-      <c r="B70" s="49" t="s">
-        <v>450</v>
       </c>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>

--- a/dyuthi16_schedule.xlsx
+++ b/dyuthi16_schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="451">
   <si>
     <t>Event</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>Medical Expo</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>Gladiator Finals</t>
@@ -1939,8 +1942,8 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C149" activeCellId="0" sqref="C149"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3125,7 +3128,9 @@
       <c r="B55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="0" t="s">
@@ -3161,13 +3166,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>18</v>
@@ -3179,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>14</v>
@@ -3187,13 +3192,13 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>28</v>
@@ -3205,7 +3210,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>14</v>
@@ -3213,16 +3218,16 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="D61" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E61" s="11" t="n">
         <v>9562031826</v>
@@ -3231,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>14</v>
@@ -3239,16 +3244,16 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E62" s="3" t="n">
         <v>8281803911</v>
@@ -3257,7 +3262,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>14</v>
@@ -3265,16 +3270,16 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E63" s="11" t="n">
         <v>9446471590</v>
@@ -3283,7 +3288,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>14</v>
@@ -3291,16 +3296,16 @@
     </row>
     <row r="64" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E64" s="11" t="n">
         <v>9495641342</v>
@@ -3309,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>14</v>
@@ -3317,16 +3322,16 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E65" s="3" t="n">
         <v>8281803911</v>
@@ -3335,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>14</v>
@@ -3343,16 +3348,16 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E66" s="3" t="n">
         <v>9562677240</v>
@@ -3361,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>14</v>
@@ -3369,16 +3374,16 @@
     </row>
     <row r="67" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E67" s="3" t="n">
         <v>9495641342</v>
@@ -3387,7 +3392,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>14</v>
@@ -3395,16 +3400,16 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>9496731433</v>
@@ -3413,7 +3418,7 @@
         <v>35</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>14</v>
@@ -3421,16 +3426,16 @@
     </row>
     <row r="69" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69" s="3" t="n">
         <v>8547817172</v>
@@ -3439,7 +3444,7 @@
         <v>35</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>14</v>
@@ -3447,16 +3452,16 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E70" s="3" t="n">
         <v>9605333226</v>
@@ -3465,7 +3470,7 @@
         <v>35</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>14</v>
@@ -3473,16 +3478,16 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E71" s="3" t="n">
         <v>9496731433</v>
@@ -3491,7 +3496,7 @@
         <v>35</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>14</v>
@@ -3499,16 +3504,16 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E72" s="3" t="n">
         <v>8547817172</v>
@@ -3517,7 +3522,7 @@
         <v>35</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>14</v>
@@ -3525,16 +3530,16 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E73" s="3" t="n">
         <v>9605333226</v>
@@ -3543,7 +3548,7 @@
         <v>35</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>14</v>
@@ -3551,16 +3556,16 @@
     </row>
     <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E74" s="9" t="n">
         <v>9020365502</v>
@@ -3569,7 +3574,7 @@
         <v>52</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>14</v>
@@ -3577,16 +3582,16 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E75" s="3" t="n">
         <v>9567133536</v>
@@ -3595,7 +3600,7 @@
         <v>52</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>14</v>
@@ -3603,7 +3608,7 @@
     </row>
     <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>30</v>
@@ -3612,7 +3617,7 @@
         <v>50</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E76" s="9" t="n">
         <v>9020365502</v>
@@ -3621,7 +3626,7 @@
         <v>52</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>14</v>
@@ -3629,16 +3634,16 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E77" s="3" t="n">
         <v>9567133536</v>
@@ -3647,7 +3652,7 @@
         <v>52</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>14</v>
@@ -3655,16 +3660,16 @@
     </row>
     <row r="78" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E78" s="3" t="n">
         <v>9567242590</v>
@@ -3673,7 +3678,7 @@
         <v>81</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>14</v>
@@ -3681,16 +3686,16 @@
     </row>
     <row r="79" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="E79" s="3" t="n">
         <v>9567242590</v>
@@ -3699,7 +3704,7 @@
         <v>81</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>14</v>
@@ -3707,7 +3712,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>83</v>
@@ -3716,7 +3721,7 @@
         <v>84</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E80" s="3" t="n">
         <v>8281968840</v>
@@ -3725,7 +3730,7 @@
         <v>86</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>14</v>
@@ -3733,16 +3738,16 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E81" s="21" t="n">
         <v>9539680010</v>
@@ -3751,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>14</v>
@@ -3759,7 +3764,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>88</v>
@@ -3768,7 +3773,7 @@
         <v>84</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E82" s="3" t="n">
         <v>8281968840</v>
@@ -3777,7 +3782,7 @@
         <v>86</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>14</v>
@@ -3785,16 +3790,16 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E83" s="3" t="n">
         <v>9562672743</v>
@@ -3803,7 +3808,7 @@
         <v>102</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>14</v>
@@ -3811,16 +3816,16 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="E84" s="3" t="n">
         <v>9562672743</v>
@@ -3829,7 +3834,7 @@
         <v>102</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>14</v>
@@ -3837,16 +3842,16 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E85" s="3" t="n">
         <v>9400588163</v>
@@ -3855,7 +3860,7 @@
         <v>64</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>14</v>
@@ -3863,10 +3868,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>70</v>
@@ -3881,7 +3886,7 @@
         <v>64</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>14</v>
@@ -3889,13 +3894,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>67</v>
@@ -3907,7 +3912,7 @@
         <v>64</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>14</v>
@@ -3915,7 +3920,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>99</v>
@@ -3933,7 +3938,7 @@
         <v>64</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>14</v>
@@ -3941,16 +3946,16 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E89" s="3" t="n">
         <v>9895967102</v>
@@ -3959,7 +3964,7 @@
         <v>118</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>14</v>
@@ -3967,16 +3972,16 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E90" s="3" t="n">
         <v>9895967102</v>
@@ -3985,7 +3990,7 @@
         <v>118</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>14</v>
@@ -3993,16 +3998,16 @@
     </row>
     <row r="91" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E91" s="3" t="n">
         <v>9495319029</v>
@@ -4011,7 +4016,7 @@
         <v>107</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>14</v>
@@ -4019,16 +4024,16 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="E92" s="3" t="n">
         <v>9495319029</v>
@@ -4037,7 +4042,7 @@
         <v>107</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>14</v>
@@ -4045,16 +4050,16 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E93" s="3" t="n">
         <v>9526669611</v>
@@ -4063,7 +4068,7 @@
         <v>107</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>14</v>
@@ -4074,13 +4079,13 @@
         <v>122</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E94" s="11" t="n">
         <v>9048561165</v>
@@ -4089,7 +4094,7 @@
         <v>125</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>14</v>
@@ -4097,7 +4102,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>9</v>
@@ -4106,7 +4111,7 @@
         <v>50</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E95" s="11" t="n">
         <v>8547537043</v>
@@ -4115,7 +4120,7 @@
         <v>125</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>14</v>
@@ -4126,13 +4131,13 @@
         <v>129</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>130</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E96" s="11" t="n">
         <v>9496585250</v>
@@ -4141,7 +4146,7 @@
         <v>125</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>14</v>
@@ -4149,16 +4154,16 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E97" s="3" t="n">
         <v>9746631743</v>
@@ -4167,7 +4172,7 @@
         <v>93</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>14</v>
@@ -4175,16 +4180,16 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E98" s="3" t="n">
         <v>8129942139</v>
@@ -4193,7 +4198,7 @@
         <v>93</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>14</v>
@@ -4201,16 +4206,16 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E99" s="3" t="n">
         <v>8129942139</v>
@@ -4219,7 +4224,7 @@
         <v>93</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>14</v>
@@ -4227,16 +4232,16 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E100" s="3" t="n">
         <v>9495978734</v>
@@ -4245,7 +4250,7 @@
         <v>93</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>14</v>
@@ -4259,7 +4264,7 @@
         <v>9</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -4267,7 +4272,7 @@
         <v>134</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>14</v>
@@ -4281,7 +4286,7 @@
         <v>9</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -4289,7 +4294,7 @@
         <v>134</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>14</v>
@@ -4303,7 +4308,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -4311,7 +4316,7 @@
         <v>134</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>14</v>
@@ -4325,7 +4330,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="3"/>
@@ -4333,7 +4338,7 @@
         <v>134</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>14</v>
@@ -4347,7 +4352,7 @@
         <v>9</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="9"/>
@@ -4355,7 +4360,7 @@
         <v>134</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>14</v>
@@ -4369,7 +4374,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="9"/>
@@ -4377,7 +4382,7 @@
         <v>134</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>14</v>
@@ -4391,7 +4396,7 @@
         <v>9</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="9"/>
@@ -4399,7 +4404,7 @@
         <v>134</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>14</v>
@@ -4421,7 +4426,7 @@
         <v>134</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>14</v>
@@ -4443,16 +4448,16 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E111" s="3" t="n">
         <v>9562031826</v>
@@ -4461,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>14</v>
@@ -4469,16 +4474,16 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E112" s="11" t="n">
         <v>8281871173</v>
@@ -4487,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>14</v>
@@ -4495,16 +4500,16 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E113" s="3" t="n">
         <v>9562677240</v>
@@ -4513,7 +4518,7 @@
         <v>12</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>14</v>
@@ -4521,7 +4526,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>9</v>
@@ -4530,7 +4535,7 @@
         <v>31</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E114" s="3" t="n">
         <v>9746723047</v>
@@ -4539,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>14</v>
@@ -4547,16 +4552,16 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E115" s="11" t="n">
         <v>9446471590</v>
@@ -4565,7 +4570,7 @@
         <v>12</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>14</v>
@@ -4573,16 +4578,16 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E116" s="3" t="n">
         <v>8281803911</v>
@@ -4591,7 +4596,7 @@
         <v>12</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>14</v>
@@ -4599,16 +4604,16 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E117" s="3" t="n">
         <v>9961652344</v>
@@ -4617,7 +4622,7 @@
         <v>35</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>14</v>
@@ -4625,16 +4630,16 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E118" s="3" t="n">
         <v>9961007832</v>
@@ -4643,7 +4648,7 @@
         <v>35</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>14</v>
@@ -4651,16 +4656,16 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E119" s="3" t="n">
         <v>9961652344</v>
@@ -4669,7 +4674,7 @@
         <v>35</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>14</v>
@@ -4677,16 +4682,16 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E120" s="3" t="n">
         <v>9961007832</v>
@@ -4695,7 +4700,7 @@
         <v>35</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>14</v>
@@ -4703,16 +4708,16 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E121" s="3" t="n">
         <v>9961652344</v>
@@ -4721,7 +4726,7 @@
         <v>35</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>14</v>
@@ -4729,16 +4734,16 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E122" s="3" t="n">
         <v>9037232661</v>
@@ -4747,7 +4752,7 @@
         <v>52</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>14</v>
@@ -4755,16 +4760,16 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E123" s="3" t="n">
         <v>9526153542</v>
@@ -4773,7 +4778,7 @@
         <v>52</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>14</v>
@@ -4781,16 +4786,16 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E124" s="3" t="n">
         <v>9037232661</v>
@@ -4799,7 +4804,7 @@
         <v>52</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>14</v>
@@ -4807,7 +4812,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>30</v>
@@ -4816,7 +4821,7 @@
         <v>50</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E125" s="3" t="n">
         <v>9526153542</v>
@@ -4825,7 +4830,7 @@
         <v>52</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>14</v>
@@ -4833,16 +4838,16 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E126" s="3" t="n">
         <v>8129192914</v>
@@ -4851,7 +4856,7 @@
         <v>64</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>14</v>
@@ -4859,16 +4864,16 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E127" s="3" t="n">
         <v>9400588163</v>
@@ -4877,7 +4882,7 @@
         <v>64</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>14</v>
@@ -4885,16 +4890,16 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="D128" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E128" s="3" t="n">
         <v>9400588163</v>
@@ -4903,7 +4908,7 @@
         <v>64</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>14</v>
@@ -4911,16 +4916,16 @@
     </row>
     <row r="129" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E129" s="3" t="n">
         <v>8129192914</v>
@@ -4929,7 +4934,7 @@
         <v>64</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>14</v>
@@ -4937,16 +4942,16 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E130" s="15" t="n">
         <v>9633679162</v>
@@ -4955,7 +4960,7 @@
         <v>81</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>14</v>
@@ -4963,16 +4968,16 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E131" s="3" t="n">
         <v>9633679162</v>
@@ -4981,7 +4986,7 @@
         <v>81</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>14</v>
@@ -4989,16 +4994,16 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E132" s="3" t="n">
         <v>9605508845</v>
@@ -5007,7 +5012,7 @@
         <v>118</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>14</v>
@@ -5015,16 +5020,16 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="E133" s="3" t="n">
         <v>9605508845</v>
@@ -5033,7 +5038,7 @@
         <v>118</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>14</v>
@@ -5041,16 +5046,16 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E134" s="3" t="n">
         <v>9633930050</v>
@@ -5059,7 +5064,7 @@
         <v>86</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>14</v>
@@ -5067,16 +5072,16 @@
     </row>
     <row r="135" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E135" s="3" t="n">
         <v>9633930050</v>
@@ -5085,7 +5090,7 @@
         <v>86</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>14</v>
@@ -5093,16 +5098,16 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>123</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E136" s="11" t="n">
         <v>9048561165</v>
@@ -5111,7 +5116,7 @@
         <v>125</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>14</v>
@@ -5119,16 +5124,16 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E137" s="11" t="n">
         <v>8547537043</v>
@@ -5137,7 +5142,7 @@
         <v>125</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>14</v>
@@ -5145,7 +5150,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>9</v>
@@ -5154,7 +5159,7 @@
         <v>130</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E138" s="11" t="n">
         <v>9496585250</v>
@@ -5163,7 +5168,7 @@
         <v>125</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>14</v>
@@ -5171,16 +5176,16 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E139" s="3" t="n">
         <v>8943070286</v>
@@ -5189,7 +5194,7 @@
         <v>107</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>14</v>
@@ -5197,16 +5202,16 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="E140" s="3" t="n">
         <v>8943070286</v>
@@ -5215,7 +5220,7 @@
         <v>107</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>14</v>
@@ -5223,23 +5228,23 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="0" t="s">
         <v>93</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>14</v>
@@ -5247,7 +5252,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>9</v>
@@ -5261,7 +5266,7 @@
         <v>93</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>14</v>
@@ -5269,7 +5274,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>9</v>
@@ -5283,7 +5288,7 @@
         <v>134</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>14</v>
@@ -5305,7 +5310,7 @@
         <v>134</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>14</v>
@@ -5327,7 +5332,7 @@
         <v>134</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>14</v>
@@ -5349,7 +5354,7 @@
         <v>134</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>14</v>
@@ -5371,7 +5376,7 @@
         <v>134</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H147" s="0" t="s">
         <v>14</v>
@@ -5393,7 +5398,7 @@
         <v>134</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H148" s="0" t="s">
         <v>14</v>
@@ -5442,7 +5447,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5451,7 +5456,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -5477,7 +5482,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -5486,7 +5491,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -5495,16 +5500,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E6" s="42" t="n">
         <v>9020993652</v>
@@ -5512,16 +5517,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>8547190286</v>
@@ -5529,16 +5534,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E8" s="43" t="n">
         <v>8547109431</v>
@@ -5546,16 +5551,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E9" s="43" t="n">
         <v>8547774002</v>
@@ -5563,16 +5568,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E10" s="43" t="n">
         <v>9400269547</v>
@@ -5580,16 +5585,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E11" s="43" t="n">
         <v>9946706411</v>
@@ -5597,16 +5602,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E12" s="43" t="n">
         <v>8547190286</v>
@@ -5614,7 +5619,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -5623,16 +5628,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E14" s="43" t="n">
         <v>9495028885</v>
@@ -5640,16 +5645,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E15" s="43" t="n">
         <v>9400686781</v>
@@ -5657,16 +5662,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E16" s="43" t="n">
         <v>9745391465</v>
@@ -5674,16 +5679,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E17" s="43" t="n">
         <v>9495028885</v>
@@ -5691,16 +5696,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>369</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>368</v>
       </c>
       <c r="E18" s="43" t="n">
         <v>9745391465</v>
@@ -5708,16 +5713,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="43" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E19" s="43" t="n">
         <v>9400686781</v>
@@ -5725,16 +5730,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="43" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E20" s="43" t="n">
         <v>9745391465</v>
@@ -5742,7 +5747,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -5751,16 +5756,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E22" s="43" t="n">
         <v>9947142491</v>
@@ -5768,7 +5773,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="43" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>9</v>
@@ -5777,7 +5782,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E23" s="43" t="n">
         <v>9567318434</v>
@@ -5785,7 +5790,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>9</v>
@@ -5794,7 +5799,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E24" s="43" t="n">
         <v>8547550700</v>
@@ -5802,7 +5807,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>9</v>
@@ -5811,7 +5816,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E25" s="43" t="n">
         <v>7293745307</v>
@@ -5819,16 +5824,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E26" s="43" t="n">
         <v>8129594077</v>
@@ -5836,16 +5841,16 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E27" s="43" t="n">
         <v>9846079065</v>
@@ -5853,16 +5858,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E28" s="43" t="n">
         <v>9496674160</v>
@@ -5870,16 +5875,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E29" s="43" t="n">
         <v>8547550700</v>
@@ -5887,16 +5892,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C30" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>389</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>388</v>
       </c>
       <c r="E30" s="43" t="n">
         <v>8129594077</v>
@@ -5904,7 +5909,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -5913,16 +5918,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="44" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E32" s="46" t="n">
         <v>9895401654</v>
@@ -5930,16 +5935,16 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E33" s="43" t="n">
         <v>9061106859</v>
@@ -5947,16 +5952,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C34" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>404</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>403</v>
       </c>
       <c r="E34" s="43" t="n">
         <v>9061106859</v>
@@ -5964,7 +5969,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -5979,10 +5984,10 @@
         <v>83</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E36" s="43" t="n">
         <v>9020205029</v>
@@ -5996,10 +6001,10 @@
         <v>88</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E37" s="43" t="n">
         <v>9020205029</v>
@@ -6007,7 +6012,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -6016,16 +6021,16 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E39" s="43" t="n">
         <v>9745858859</v>
@@ -6033,16 +6038,16 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E40" s="43" t="n">
         <v>9745858859</v>
@@ -6050,16 +6055,16 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="42" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E41" s="42" t="n">
         <v>9633478901</v>
@@ -6067,7 +6072,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -6076,16 +6081,16 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E43" s="43" t="n">
         <v>9400482641</v>
@@ -6093,16 +6098,16 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="43" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E44" s="43" t="n">
         <v>9037069691</v>
@@ -6110,16 +6115,16 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B45" s="43" t="s">
         <v>115</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E45" s="43" t="n">
         <v>8547594806</v>
@@ -6127,16 +6132,16 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="47" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E46" s="43" t="n">
         <v>9037069691</v>
@@ -6144,16 +6149,16 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="43" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E47" s="43" t="n">
         <v>8547594806</v>
@@ -6161,7 +6166,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -6176,10 +6181,10 @@
         <v>115</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E49" s="43" t="n">
         <v>9745082816</v>
@@ -6187,16 +6192,16 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E50" s="43" t="n">
         <v>8606555089</v>
@@ -6213,7 +6218,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E51" s="43" t="n">
         <v>9745082816</v>
@@ -6221,7 +6226,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -6230,16 +6235,16 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="43" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E53" s="43" t="n">
         <v>8281980537</v>
@@ -6247,16 +6252,16 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="43" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C54" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>435</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>434</v>
       </c>
       <c r="E54" s="43" t="n">
         <v>8281980537</v>
@@ -6264,7 +6269,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -6276,13 +6281,13 @@
         <v>122</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E56" s="42" t="n">
         <v>9400548080</v>
@@ -6293,13 +6298,13 @@
         <v>129</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E57" s="42" t="n">
         <v>9633075534</v>
@@ -6307,16 +6312,16 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="42" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E58" s="42" t="n">
         <v>9496365493</v>
@@ -6324,7 +6329,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -6333,16 +6338,16 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B60" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E60" s="43" t="n">
         <v>8943472471</v>
@@ -6350,7 +6355,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -6424,7 +6429,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="43" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>9</v>
@@ -6437,13 +6442,13 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
@@ -6457,10 +6462,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="48" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>

--- a/dyuthi16_schedule.xlsx
+++ b/dyuthi16_schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="452">
   <si>
     <t>Event</t>
   </si>
@@ -60,19 +60,22 @@
     <t>Day 1</t>
   </si>
   <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Gladiator Round 1</t>
+  </si>
+  <si>
+    <t>11:00-02:00 PM</t>
+  </si>
+  <si>
+    <t>Room No 309, Main Block</t>
+  </si>
+  <si>
+    <t>Saad Nabeel</t>
+  </si>
+  <si>
     <t>Upcoming</t>
-  </si>
-  <si>
-    <t>Gladiator Round 1</t>
-  </si>
-  <si>
-    <t>11:00-02:00 PM</t>
-  </si>
-  <si>
-    <t>Room No 309, Main Block</t>
-  </si>
-  <si>
-    <t>Saad Nabeel</t>
   </si>
   <si>
     <t>Quizards of OZ prelims</t>
@@ -1942,8 +1945,8 @@
   </sheetPr>
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2033,21 +2036,21 @@
         <v>13</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>9747044448</v>
@@ -2059,18 +2062,18 @@
         <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
@@ -2085,21 +2088,21 @@
         <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>8281467609</v>
@@ -2111,21 +2114,21 @@
         <v>13</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>9747044448</v>
@@ -2137,7 +2140,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2149,132 +2152,132 @@
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>9745128664</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>8281881253</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>9745128664</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>8281881253</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>9745128664</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2286,106 +2289,106 @@
     </row>
     <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>9495534237</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>9895523625</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>9495534237</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>9895523625</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2397,132 +2400,132 @@
     </row>
     <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>8136836360</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>9961666464</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>8136836360</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>7561844578</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>8136836360</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2534,28 +2537,28 @@
     </row>
     <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>9495995191</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2567,54 +2570,54 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>9400048853</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>9400048853</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,54 +2629,54 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="9" t="n">
         <v>9746631743</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E32" s="9" t="n">
         <v>9947588818</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,28 +2688,28 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34" s="11" t="n">
         <v>9633604773</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,80 +2722,80 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>9567070740</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>9645888695</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>9567070740</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,54 +2807,54 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>8943469912</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E41" s="3" t="n">
         <v>8943469912</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,80 +2866,80 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" s="11" t="n">
         <v>9048561165</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E44" s="11" t="n">
         <v>8547537043</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E45" s="11" t="n">
         <v>9496585250</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2948,199 +2951,199 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,13 +3169,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>18</v>
@@ -3184,24 +3187,24 @@
         <v>12</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E60" s="11" t="n">
         <v>8281467609</v>
@@ -3210,24 +3213,24 @@
         <v>12</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="D61" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E61" s="11" t="n">
         <v>9562031826</v>
@@ -3236,24 +3239,24 @@
         <v>12</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E62" s="3" t="n">
         <v>8281803911</v>
@@ -3262,24 +3265,24 @@
         <v>12</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E63" s="11" t="n">
         <v>9446471590</v>
@@ -3288,24 +3291,24 @@
         <v>12</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E64" s="11" t="n">
         <v>9495641342</v>
@@ -3314,24 +3317,24 @@
         <v>12</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E65" s="3" t="n">
         <v>8281803911</v>
@@ -3340,24 +3343,24 @@
         <v>12</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E66" s="3" t="n">
         <v>9562677240</v>
@@ -3366,24 +3369,24 @@
         <v>12</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E67" s="3" t="n">
         <v>9495641342</v>
@@ -3392,1044 +3395,1044 @@
         <v>12</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>9496731433</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E69" s="3" t="n">
         <v>8547817172</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E70" s="3" t="n">
         <v>9605333226</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E71" s="3" t="n">
         <v>9496731433</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E72" s="3" t="n">
         <v>8547817172</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E73" s="3" t="n">
         <v>9605333226</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E74" s="9" t="n">
         <v>9020365502</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E75" s="3" t="n">
         <v>9567133536</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E76" s="9" t="n">
         <v>9020365502</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E77" s="3" t="n">
         <v>9567133536</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E78" s="3" t="n">
         <v>9567242590</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="E79" s="3" t="n">
         <v>9567242590</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E80" s="3" t="n">
         <v>8281968840</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E81" s="21" t="n">
         <v>9539680010</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E82" s="3" t="n">
         <v>8281968840</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E83" s="3" t="n">
         <v>9562672743</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="E84" s="3" t="n">
         <v>9562672743</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E85" s="3" t="n">
         <v>9400588163</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E86" s="3" t="n">
         <v>7561844578</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E87" s="3" t="n">
         <v>9961666464</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E88" s="3" t="n">
         <v>9961666464</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E89" s="3" t="n">
         <v>9895967102</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="E90" s="3" t="n">
         <v>9895967102</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E91" s="3" t="n">
         <v>9495319029</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="E92" s="3" t="n">
         <v>9495319029</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E93" s="3" t="n">
         <v>9526669611</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E94" s="11" t="n">
         <v>9048561165</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E95" s="11" t="n">
         <v>8547537043</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E96" s="11" t="n">
         <v>9496585250</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E97" s="3" t="n">
         <v>9746631743</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E98" s="3" t="n">
         <v>8129942139</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="E99" s="3" t="n">
         <v>8129942139</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E100" s="3" t="n">
         <v>9495978734</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="3"/>
       <c r="F104" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="9"/>
       <c r="F105" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="9"/>
       <c r="F106" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="9"/>
       <c r="F107" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="27"/>
       <c r="F108" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,16 +4451,16 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E111" s="3" t="n">
         <v>9562031826</v>
@@ -4466,24 +4469,24 @@
         <v>12</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E112" s="11" t="n">
         <v>8281871173</v>
@@ -4492,24 +4495,24 @@
         <v>12</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E113" s="3" t="n">
         <v>9562677240</v>
@@ -4518,24 +4521,24 @@
         <v>12</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E114" s="3" t="n">
         <v>9746723047</v>
@@ -4544,24 +4547,24 @@
         <v>12</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E115" s="11" t="n">
         <v>9446471590</v>
@@ -4570,24 +4573,24 @@
         <v>12</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E116" s="3" t="n">
         <v>8281803911</v>
@@ -4596,812 +4599,812 @@
         <v>12</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E117" s="3" t="n">
         <v>9961652344</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E118" s="3" t="n">
         <v>9961007832</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E119" s="3" t="n">
         <v>9961652344</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E120" s="3" t="n">
         <v>9961007832</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E121" s="3" t="n">
         <v>9961652344</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E122" s="3" t="n">
         <v>9037232661</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E123" s="3" t="n">
         <v>9526153542</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E124" s="3" t="n">
         <v>9037232661</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E125" s="3" t="n">
         <v>9526153542</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E126" s="3" t="n">
         <v>8129192914</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E127" s="3" t="n">
         <v>9400588163</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="D128" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E128" s="3" t="n">
         <v>9400588163</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E129" s="3" t="n">
         <v>8129192914</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E130" s="15" t="n">
         <v>9633679162</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D131" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>319</v>
       </c>
       <c r="E131" s="3" t="n">
         <v>9633679162</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E132" s="3" t="n">
         <v>9605508845</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="E133" s="3" t="n">
         <v>9605508845</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E134" s="3" t="n">
         <v>9633930050</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E135" s="3" t="n">
         <v>9633930050</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E136" s="11" t="n">
         <v>9048561165</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E137" s="11" t="n">
         <v>8547537043</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E138" s="11" t="n">
         <v>9496585250</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E139" s="3" t="n">
         <v>8943070286</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="E140" s="3" t="n">
         <v>8943070286</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="3"/>
       <c r="F146" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="15"/>
       <c r="F147" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D148" s="36"/>
       <c r="E148" s="3"/>
       <c r="F148" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,7 +5450,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5456,7 +5459,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -5482,7 +5485,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -5491,7 +5494,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -5500,16 +5503,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E6" s="42" t="n">
         <v>9020993652</v>
@@ -5517,16 +5520,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>8547190286</v>
@@ -5534,16 +5537,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E8" s="43" t="n">
         <v>8547109431</v>
@@ -5551,16 +5554,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E9" s="43" t="n">
         <v>8547774002</v>
@@ -5568,16 +5571,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E10" s="43" t="n">
         <v>9400269547</v>
@@ -5585,16 +5588,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E11" s="43" t="n">
         <v>9946706411</v>
@@ -5602,16 +5605,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E12" s="43" t="n">
         <v>8547190286</v>
@@ -5619,7 +5622,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -5628,16 +5631,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E14" s="43" t="n">
         <v>9495028885</v>
@@ -5645,16 +5648,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="43" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E15" s="43" t="n">
         <v>9400686781</v>
@@ -5662,16 +5665,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="43" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E16" s="43" t="n">
         <v>9745391465</v>
@@ -5679,16 +5682,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E17" s="43" t="n">
         <v>9495028885</v>
@@ -5696,16 +5699,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>370</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>369</v>
       </c>
       <c r="E18" s="43" t="n">
         <v>9745391465</v>
@@ -5713,16 +5716,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="43" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E19" s="43" t="n">
         <v>9400686781</v>
@@ -5730,16 +5733,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="43" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E20" s="43" t="n">
         <v>9745391465</v>
@@ -5747,7 +5750,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -5756,16 +5759,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E22" s="43" t="n">
         <v>9947142491</v>
@@ -5773,16 +5776,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E23" s="43" t="n">
         <v>9567318434</v>
@@ -5790,16 +5793,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E24" s="43" t="n">
         <v>8547550700</v>
@@ -5807,16 +5810,16 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E25" s="43" t="n">
         <v>7293745307</v>
@@ -5824,16 +5827,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E26" s="43" t="n">
         <v>8129594077</v>
@@ -5841,16 +5844,16 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E27" s="43" t="n">
         <v>9846079065</v>
@@ -5858,16 +5861,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="43" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E28" s="43" t="n">
         <v>9496674160</v>
@@ -5875,16 +5878,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E29" s="43" t="n">
         <v>8547550700</v>
@@ -5892,16 +5895,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C30" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>390</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>389</v>
       </c>
       <c r="E30" s="43" t="n">
         <v>8129594077</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -5918,16 +5921,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="44" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E32" s="46" t="n">
         <v>9895401654</v>
@@ -5935,16 +5938,16 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="43" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E33" s="43" t="n">
         <v>9061106859</v>
@@ -5952,16 +5955,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="43" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C34" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>405</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>404</v>
       </c>
       <c r="E34" s="43" t="n">
         <v>9061106859</v>
@@ -5969,7 +5972,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -5978,16 +5981,16 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E36" s="43" t="n">
         <v>9020205029</v>
@@ -5995,16 +5998,16 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E37" s="43" t="n">
         <v>9020205029</v>
@@ -6012,7 +6015,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -6021,16 +6024,16 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E39" s="43" t="n">
         <v>9745858859</v>
@@ -6038,16 +6041,16 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E40" s="43" t="n">
         <v>9745858859</v>
@@ -6055,16 +6058,16 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="42" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E41" s="42" t="n">
         <v>9633478901</v>
@@ -6072,7 +6075,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -6081,16 +6084,16 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E43" s="43" t="n">
         <v>9400482641</v>
@@ -6098,16 +6101,16 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="43" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E44" s="43" t="n">
         <v>9037069691</v>
@@ -6115,16 +6118,16 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="43" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E45" s="43" t="n">
         <v>8547594806</v>
@@ -6132,16 +6135,16 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="47" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E46" s="43" t="n">
         <v>9037069691</v>
@@ -6149,16 +6152,16 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="43" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E47" s="43" t="n">
         <v>8547594806</v>
@@ -6166,7 +6169,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -6175,16 +6178,16 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E49" s="43" t="n">
         <v>9745082816</v>
@@ -6192,16 +6195,16 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E50" s="43" t="n">
         <v>8606555089</v>
@@ -6209,16 +6212,16 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E51" s="43" t="n">
         <v>9745082816</v>
@@ -6226,7 +6229,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -6235,16 +6238,16 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="43" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E53" s="43" t="n">
         <v>8281980537</v>
@@ -6252,16 +6255,16 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C54" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>436</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>435</v>
       </c>
       <c r="E54" s="43" t="n">
         <v>8281980537</v>
@@ -6269,7 +6272,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -6278,16 +6281,16 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E56" s="42" t="n">
         <v>9400548080</v>
@@ -6295,16 +6298,16 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E57" s="42" t="n">
         <v>9633075534</v>
@@ -6312,16 +6315,16 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="42" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E58" s="42" t="n">
         <v>9496365493</v>
@@ -6329,7 +6332,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -6338,16 +6341,16 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E60" s="43" t="n">
         <v>8943472471</v>
@@ -6355,7 +6358,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -6364,91 +6367,91 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B62" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B64" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B66" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="43" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="43" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
@@ -6462,10 +6465,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="48" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>

--- a/dyuthi16_schedule.xlsx
+++ b/dyuthi16_schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="451">
   <si>
     <t>Event</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Day 1</t>
   </si>
   <si>
-    <t>Ongoing</t>
+    <t>Upcoming</t>
   </si>
   <si>
     <t>Gladiator Round 1</t>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>Saad Nabeel</t>
-  </si>
-  <si>
-    <t>Upcoming</t>
   </si>
   <si>
     <t>Quizards of OZ prelims</t>
@@ -2036,21 +2033,21 @@
         <v>13</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>9747044448</v>
@@ -2062,18 +2059,18 @@
         <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
@@ -2088,21 +2085,21 @@
         <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>8281467609</v>
@@ -2114,21 +2111,21 @@
         <v>13</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>9747044448</v>
@@ -2140,7 +2137,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2152,132 +2149,132 @@
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>9745128664</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>8281881253</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>9745128664</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>8281881253</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>9745128664</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2289,106 +2286,106 @@
     </row>
     <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>9495534237</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>9895523625</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>9495534237</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>9895523625</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2400,132 +2397,132 @@
     </row>
     <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>8136836360</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>9961666464</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>8136836360</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>7561844578</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>8136836360</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2537,28 +2534,28 @@
     </row>
     <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>9495995191</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2570,54 +2567,54 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>9400048853</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E29" s="3" t="n">
         <v>9400048853</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,54 +2626,54 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="E31" s="9" t="n">
         <v>9746631743</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="E32" s="9" t="n">
         <v>9947588818</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,28 +2685,28 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="E34" s="11" t="n">
         <v>9633604773</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,80 +2719,80 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>9567070740</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>9645888695</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="C38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>9567070740</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,54 +2804,54 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>8943469912</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="3" t="n">
         <v>8943469912</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,80 +2863,80 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="E43" s="11" t="n">
         <v>9048561165</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="E44" s="11" t="n">
         <v>8547537043</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="E45" s="11" t="n">
         <v>9496585250</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,199 +2948,199 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,13 +3166,13 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="C59" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>18</v>
@@ -3187,24 +3184,24 @@
         <v>12</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D60" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E60" s="11" t="n">
         <v>8281467609</v>
@@ -3213,24 +3210,24 @@
         <v>12</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="E61" s="11" t="n">
         <v>9562031826</v>
@@ -3239,24 +3236,24 @@
         <v>12</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="E62" s="3" t="n">
         <v>8281803911</v>
@@ -3265,24 +3262,24 @@
         <v>12</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="D63" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="E63" s="11" t="n">
         <v>9446471590</v>
@@ -3291,24 +3288,24 @@
         <v>12</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C64" s="22" t="s">
+      <c r="D64" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="E64" s="11" t="n">
         <v>9495641342</v>
@@ -3317,24 +3314,24 @@
         <v>12</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E65" s="3" t="n">
         <v>8281803911</v>
@@ -3343,24 +3340,24 @@
         <v>12</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E66" s="3" t="n">
         <v>9562677240</v>
@@ -3369,24 +3366,24 @@
         <v>12</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E67" s="3" t="n">
         <v>9495641342</v>
@@ -3395,1044 +3392,1044 @@
         <v>12</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>9496731433</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E69" s="3" t="n">
         <v>8547817172</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="E70" s="3" t="n">
         <v>9605333226</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E71" s="3" t="n">
         <v>9496731433</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E72" s="3" t="n">
         <v>8547817172</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E73" s="3" t="n">
         <v>9605333226</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="24" t="s">
         <v>199</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>200</v>
       </c>
       <c r="E74" s="9" t="n">
         <v>9020365502</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="E75" s="3" t="n">
         <v>9567133536</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E76" s="9" t="n">
         <v>9020365502</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E77" s="3" t="n">
         <v>9567133536</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="E78" s="3" t="n">
         <v>9567242590</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E79" s="3" t="n">
         <v>9567242590</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="E80" s="3" t="n">
         <v>8281968840</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="C81" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="D81" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>218</v>
       </c>
       <c r="E81" s="21" t="n">
         <v>9539680010</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E82" s="3" t="n">
         <v>8281968840</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="E83" s="3" t="n">
         <v>9562672743</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="C84" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="E84" s="3" t="n">
         <v>9562672743</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="E85" s="3" t="n">
         <v>9400588163</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="C86" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E86" s="3" t="n">
         <v>7561844578</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E87" s="3" t="n">
         <v>9961666464</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E88" s="3" t="n">
         <v>9961666464</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="E89" s="3" t="n">
         <v>9895967102</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="D90" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E90" s="3" t="n">
         <v>9895967102</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E91" s="3" t="n">
         <v>9495319029</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="D92" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E92" s="3" t="n">
         <v>9495319029</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="E93" s="3" t="n">
         <v>9526669611</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="D94" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="E94" s="11" t="n">
         <v>9048561165</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E95" s="11" t="n">
         <v>8547537043</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="D96" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E96" s="11" t="n">
         <v>9496585250</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="26" t="s">
         <v>255</v>
-      </c>
-      <c r="D97" s="26" t="s">
-        <v>256</v>
       </c>
       <c r="E97" s="3" t="n">
         <v>9746631743</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E98" s="3" t="n">
         <v>8129942139</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E99" s="3" t="n">
         <v>8129942139</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="E100" s="3" t="n">
         <v>9495978734</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="3"/>
       <c r="F104" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="9"/>
       <c r="F105" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="9"/>
       <c r="F106" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="9"/>
       <c r="F107" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="27"/>
       <c r="F108" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4451,16 +4448,16 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="C111" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="E111" s="3" t="n">
         <v>9562031826</v>
@@ -4469,24 +4466,24 @@
         <v>12</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>276</v>
       </c>
       <c r="E112" s="11" t="n">
         <v>8281871173</v>
@@ -4495,24 +4492,24 @@
         <v>12</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="D113" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E113" s="3" t="n">
         <v>9562677240</v>
@@ -4521,24 +4518,24 @@
         <v>12</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E114" s="3" t="n">
         <v>9746723047</v>
@@ -4547,24 +4544,24 @@
         <v>12</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B115" s="11" t="s">
-        <v>283</v>
-      </c>
       <c r="C115" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E115" s="11" t="n">
         <v>9446471590</v>
@@ -4573,24 +4570,24 @@
         <v>12</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B116" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="B116" s="34" t="s">
-        <v>285</v>
-      </c>
       <c r="C116" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E116" s="3" t="n">
         <v>8281803911</v>
@@ -4599,812 +4596,812 @@
         <v>12</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="E117" s="3" t="n">
         <v>9961652344</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="E118" s="3" t="n">
         <v>9961007832</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="C119" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="E119" s="3" t="n">
         <v>9961652344</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="D120" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E120" s="3" t="n">
         <v>9961007832</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="C121" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E121" s="3" t="n">
         <v>9961652344</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>302</v>
       </c>
       <c r="E122" s="3" t="n">
         <v>9037232661</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="E123" s="3" t="n">
         <v>9526153542</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="C124" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E124" s="3" t="n">
         <v>9037232661</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E125" s="3" t="n">
         <v>9526153542</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="E126" s="3" t="n">
         <v>8129192914</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="D127" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E127" s="3" t="n">
         <v>9400588163</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E128" s="3" t="n">
         <v>9400588163</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="D129" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E129" s="3" t="n">
         <v>8129192914</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B130" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="C130" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="D130" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="E130" s="15" t="n">
         <v>9633679162</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>322</v>
-      </c>
       <c r="D131" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E131" s="3" t="n">
         <v>9633679162</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="E132" s="3" t="n">
         <v>9605508845</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="C133" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E133" s="3" t="n">
         <v>9605508845</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="E134" s="3" t="n">
         <v>9633930050</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="D135" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E135" s="3" t="n">
         <v>9633930050</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E136" s="11" t="n">
         <v>9048561165</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="C137" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="D137" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>337</v>
       </c>
       <c r="E137" s="11" t="n">
         <v>8547537043</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B138" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E138" s="11" t="n">
         <v>9496585250</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="E139" s="3" t="n">
         <v>8943070286</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="D140" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E140" s="3" t="n">
         <v>8943070286</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H143" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H144" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D146" s="15"/>
       <c r="E146" s="3"/>
       <c r="F146" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H146" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="15"/>
       <c r="F147" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C148" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D148" s="36"/>
       <c r="E148" s="3"/>
       <c r="F148" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,7 +5447,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -5459,7 +5456,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -5485,7 +5482,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -5494,7 +5491,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -5503,16 +5500,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E6" s="42" t="n">
         <v>9020993652</v>
@@ -5520,16 +5517,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>352</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>353</v>
       </c>
       <c r="E7" s="43" t="n">
         <v>8547190286</v>
@@ -5537,16 +5534,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="D8" s="43" t="s">
         <v>355</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>356</v>
       </c>
       <c r="E8" s="43" t="n">
         <v>8547109431</v>
@@ -5554,16 +5551,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>357</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>358</v>
       </c>
       <c r="E9" s="43" t="n">
         <v>8547774002</v>
@@ -5571,16 +5568,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E10" s="43" t="n">
         <v>9400269547</v>
@@ -5588,16 +5585,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>360</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="C11" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>361</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>362</v>
       </c>
       <c r="E11" s="43" t="n">
         <v>9946706411</v>
@@ -5605,16 +5602,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E12" s="43" t="n">
         <v>8547190286</v>
@@ -5622,7 +5619,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -5631,16 +5628,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>365</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>366</v>
       </c>
       <c r="E14" s="43" t="n">
         <v>9495028885</v>
@@ -5648,16 +5645,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>367</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>368</v>
       </c>
       <c r="E15" s="43" t="n">
         <v>9400686781</v>
@@ -5665,16 +5662,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>369</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>370</v>
       </c>
       <c r="E16" s="43" t="n">
         <v>9745391465</v>
@@ -5682,16 +5679,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="C17" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>191</v>
-      </c>
       <c r="D17" s="43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E17" s="43" t="n">
         <v>9495028885</v>
@@ -5699,16 +5696,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="C18" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>373</v>
-      </c>
       <c r="D18" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E18" s="43" t="n">
         <v>9745391465</v>
@@ -5716,16 +5713,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>375</v>
-      </c>
       <c r="D19" s="43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E19" s="43" t="n">
         <v>9400686781</v>
@@ -5733,16 +5730,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="C20" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>378</v>
-      </c>
       <c r="D20" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E20" s="43" t="n">
         <v>9745391465</v>
@@ -5750,7 +5747,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -5759,16 +5756,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="D22" s="44" t="s">
         <v>381</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>382</v>
       </c>
       <c r="E22" s="43" t="n">
         <v>9947142491</v>
@@ -5776,16 +5773,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E23" s="43" t="n">
         <v>9567318434</v>
@@ -5793,16 +5790,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B24" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E24" s="43" t="n">
         <v>8547550700</v>
@@ -5810,16 +5807,16 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B25" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E25" s="43" t="n">
         <v>7293745307</v>
@@ -5827,16 +5824,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="C26" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>389</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>390</v>
       </c>
       <c r="E26" s="43" t="n">
         <v>8129594077</v>
@@ -5844,16 +5841,16 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>391</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>392</v>
       </c>
       <c r="E27" s="43" t="n">
         <v>9846079065</v>
@@ -5861,16 +5858,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>393</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>381</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>394</v>
       </c>
       <c r="E28" s="43" t="n">
         <v>9496674160</v>
@@ -5878,16 +5875,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>395</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="C29" s="43" t="s">
         <v>396</v>
       </c>
-      <c r="C29" s="43" t="s">
-        <v>397</v>
-      </c>
       <c r="D29" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E29" s="43" t="n">
         <v>8547550700</v>
@@ -5895,16 +5892,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>399</v>
-      </c>
       <c r="C30" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E30" s="43" t="n">
         <v>8129594077</v>
@@ -5912,7 +5909,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
@@ -5921,16 +5918,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="B32" s="45" t="s">
         <v>401</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="C32" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="44" t="s">
         <v>402</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="44" t="s">
-        <v>403</v>
       </c>
       <c r="E32" s="46" t="n">
         <v>9895401654</v>
@@ -5938,16 +5935,16 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="43" t="s">
         <v>404</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>405</v>
       </c>
       <c r="E33" s="43" t="n">
         <v>9061106859</v>
@@ -5955,16 +5952,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>404</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>405</v>
       </c>
       <c r="E34" s="43" t="n">
         <v>9061106859</v>
@@ -5972,7 +5969,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -5981,16 +5978,16 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>84</v>
-      </c>
       <c r="C36" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>408</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>409</v>
       </c>
       <c r="E36" s="43" t="n">
         <v>9020205029</v>
@@ -5998,16 +5995,16 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>89</v>
-      </c>
       <c r="C37" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>408</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>409</v>
       </c>
       <c r="E37" s="43" t="n">
         <v>9020205029</v>
@@ -6015,7 +6012,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -6024,16 +6021,16 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>221</v>
-      </c>
       <c r="C39" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" s="43" t="s">
         <v>411</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>412</v>
       </c>
       <c r="E39" s="43" t="n">
         <v>9745858859</v>
@@ -6041,16 +6038,16 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>225</v>
-      </c>
       <c r="C40" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D40" s="43" t="s">
         <v>411</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>412</v>
       </c>
       <c r="E40" s="43" t="n">
         <v>9745858859</v>
@@ -6058,16 +6055,16 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D41" s="42" t="s">
         <v>413</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>414</v>
       </c>
       <c r="E41" s="42" t="n">
         <v>9633478901</v>
@@ -6075,7 +6072,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -6084,16 +6081,16 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>416</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>417</v>
       </c>
       <c r="E43" s="43" t="n">
         <v>9400482641</v>
@@ -6101,16 +6098,16 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="43" t="s">
         <v>418</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" s="43" t="s">
+      <c r="D44" s="43" t="s">
         <v>419</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>420</v>
       </c>
       <c r="E44" s="43" t="n">
         <v>9037069691</v>
@@ -6118,16 +6115,16 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="43" t="s">
+      <c r="D45" s="43" t="s">
         <v>422</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>423</v>
       </c>
       <c r="E45" s="43" t="n">
         <v>8547594806</v>
@@ -6135,16 +6132,16 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>424</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="C46" s="43" t="s">
         <v>425</v>
       </c>
-      <c r="C46" s="43" t="s">
-        <v>426</v>
-      </c>
       <c r="D46" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E46" s="43" t="n">
         <v>9037069691</v>
@@ -6152,16 +6149,16 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>428</v>
-      </c>
       <c r="D47" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E47" s="43" t="n">
         <v>8547594806</v>
@@ -6169,7 +6166,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -6178,16 +6175,16 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>116</v>
-      </c>
       <c r="C49" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="D49" s="43" t="s">
         <v>430</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>431</v>
       </c>
       <c r="E49" s="43" t="n">
         <v>9745082816</v>
@@ -6195,16 +6192,16 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C50" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>432</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>433</v>
       </c>
       <c r="E50" s="43" t="n">
         <v>8606555089</v>
@@ -6212,16 +6209,16 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="C51" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="43" t="s">
-        <v>122</v>
-      </c>
       <c r="D51" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E51" s="43" t="n">
         <v>9745082816</v>
@@ -6229,7 +6226,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -6238,16 +6235,16 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C53" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="D53" s="43" t="s">
         <v>435</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>436</v>
       </c>
       <c r="E53" s="43" t="n">
         <v>8281980537</v>
@@ -6255,16 +6252,16 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E54" s="43" t="n">
         <v>8281980537</v>
@@ -6272,7 +6269,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -6281,16 +6278,16 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C56" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="D56" s="42" t="s">
         <v>439</v>
-      </c>
-      <c r="D56" s="42" t="s">
-        <v>440</v>
       </c>
       <c r="E56" s="42" t="n">
         <v>9400548080</v>
@@ -6298,16 +6295,16 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E57" s="42" t="n">
         <v>9633075534</v>
@@ -6315,16 +6312,16 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="42" t="s">
         <v>442</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="42" t="s">
-        <v>443</v>
       </c>
       <c r="E58" s="42" t="n">
         <v>9496365493</v>
@@ -6332,7 +6329,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -6341,16 +6338,16 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E60" s="43" t="n">
         <v>8943472471</v>
@@ -6358,7 +6355,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -6367,91 +6364,91 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" s="43"/>
       <c r="E66" s="43"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D68" s="43"/>
       <c r="E68" s="43"/>
@@ -6465,10 +6462,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="B70" s="49" t="s">
         <v>450</v>
-      </c>
-      <c r="B70" s="49" t="s">
-        <v>451</v>
       </c>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>

--- a/dyuthi16_schedule.xlsx
+++ b/dyuthi16_schedule.xlsx
@@ -1560,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D162" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G178" activeCellId="0" sqref="G178:G185"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D165" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H186" activeCellId="0" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
